--- a/data/propotion_dimposes_par_qpv.xlsx
+++ b/data/propotion_dimposes_par_qpv.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tibo\Documents\demographie\diagnostic-de-territoire-M2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F407D9-C2DC-45C8-96F6-C053F8A7C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -583,12 +575,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -598,7 +591,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -616,352 +609,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1027,25 +687,25 @@
       <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>43.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>36.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>36.4</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>35.091575091575095</v>
       </c>
-      <c r="K2">
-        <v>38.136826783114991</v>
-      </c>
-      <c r="L2">
-        <v>41.201716738197433</v>
-      </c>
-      <c r="M2">
+      <c r="K2" t="n">
+        <v>38.13682678311499</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.20171673819743</v>
+      </c>
+      <c r="M2" t="n">
         <v>40.615835777126094</v>
       </c>
       <c r="N2" t="s">
@@ -1058,7 +718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +737,7 @@
       <c r="F3" t="s">
         <v>109</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>43.1</v>
       </c>
       <c r="H3" t="e">
@@ -1108,7 +768,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1127,26 +787,26 @@
       <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>34.4</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>28.6</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>28.4</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>27.261306532663315</v>
       </c>
-      <c r="K4">
-        <v>31.552162849872769</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>31.55216284987277</v>
+      </c>
+      <c r="L4" t="n">
         <v>35.400516795865634</v>
       </c>
-      <c r="M4">
-        <v>36.511919698870763</v>
+      <c r="M4" t="n">
+        <v>36.51191969887076</v>
       </c>
       <c r="N4" t="s">
         <v>136</v>
@@ -1158,7 +818,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1177,26 +837,26 @@
       <c r="F5" t="s">
         <v>111</v>
       </c>
-      <c r="G5">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>29.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>29.1</v>
       </c>
-      <c r="J5">
-        <v>28.571428571428559</v>
-      </c>
-      <c r="K5">
+      <c r="J5" t="n">
+        <v>28.57142857142856</v>
+      </c>
+      <c r="K5" t="n">
         <v>33.401015228426395</v>
       </c>
-      <c r="L5">
-        <v>36.697247706422019</v>
-      </c>
-      <c r="M5">
-        <v>38.631790744466798</v>
+      <c r="L5" t="n">
+        <v>36.69724770642202</v>
+      </c>
+      <c r="M5" t="n">
+        <v>38.6317907444668</v>
       </c>
       <c r="N5" t="s">
         <v>137</v>
@@ -1208,7 +868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1227,26 +887,26 @@
       <c r="F6" t="s">
         <v>112</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>42.8</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>35.9</v>
       </c>
-      <c r="I6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="J6">
-        <v>35.636645962732921</v>
-      </c>
-      <c r="K6">
+      <c r="I6" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35.63664596273292</v>
+      </c>
+      <c r="K6" t="n">
         <v>36.91119691119691</v>
       </c>
-      <c r="L6">
-        <v>39.835390946502059</v>
-      </c>
-      <c r="M6">
-        <v>40.643033800494642</v>
+      <c r="L6" t="n">
+        <v>39.83539094650206</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40.64303380049464</v>
       </c>
       <c r="N6" t="s">
         <v>138</v>
@@ -1258,7 +918,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1277,26 +937,26 @@
       <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>34.9</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>28.6</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>29.7</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>30.141287284144425</v>
       </c>
-      <c r="K7">
-        <v>31.677018633540371</v>
-      </c>
-      <c r="L7">
-        <v>35.887412040656763</v>
-      </c>
-      <c r="M7">
-        <v>35.586635586635587</v>
+      <c r="K7" t="n">
+        <v>31.67701863354037</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35.88741204065676</v>
+      </c>
+      <c r="M7" t="n">
+        <v>35.58663558663559</v>
       </c>
       <c r="N7" t="s">
         <v>139</v>
@@ -1308,7 +968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1327,25 +987,25 @@
       <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>22.4</v>
       </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J8">
-        <v>16.425120772946858</v>
-      </c>
-      <c r="K8">
+      <c r="H8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.42512077294686</v>
+      </c>
+      <c r="K8" t="n">
         <v>21.78702570379437</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>24.665856622114216</v>
       </c>
       <c r="N8" t="s">
@@ -1358,7 +1018,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1377,25 +1037,25 @@
       <c r="F9" t="s">
         <v>114</v>
       </c>
-      <c r="G9">
-        <v>36</v>
-      </c>
-      <c r="H9">
+      <c r="G9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>28.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>28.7</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>30.672748004561004</v>
       </c>
-      <c r="K9">
-        <v>35.075493612078979</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="n">
+        <v>35.07549361207898</v>
+      </c>
+      <c r="L9" t="n">
         <v>36.265223274695536</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>36.84210526315789</v>
       </c>
       <c r="N9" t="s">
@@ -1408,7 +1068,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1427,25 +1087,25 @@
       <c r="F10" t="s">
         <v>115</v>
       </c>
-      <c r="G10">
-        <v>37</v>
-      </c>
-      <c r="H10">
+      <c r="G10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="H10" t="n">
         <v>28.7</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>29.5</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>30.125284738041</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>34.68414779499404</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>36.649874055415616</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>38.77683799609629</v>
       </c>
       <c r="N10" t="s">
@@ -1458,7 +1118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1477,25 +1137,25 @@
       <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="G11">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="H11" t="n">
         <v>26.7</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>29.7</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>30.656303972366135</v>
       </c>
-      <c r="K11">
-        <v>34.470691163604549</v>
-      </c>
-      <c r="L11">
-        <v>38.843721770551042</v>
-      </c>
-      <c r="M11">
+      <c r="K11" t="n">
+        <v>34.47069116360455</v>
+      </c>
+      <c r="L11" t="n">
+        <v>38.84372177055104</v>
+      </c>
+      <c r="M11" t="n">
         <v>40.018066847335135</v>
       </c>
       <c r="N11" t="s">
@@ -1508,7 +1168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1527,26 +1187,26 @@
       <c r="F12" t="s">
         <v>117</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>48.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>41.9</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>43.5</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>42.33841684822076</v>
       </c>
-      <c r="K12">
-        <v>46.676300578034677</v>
-      </c>
-      <c r="L12">
-        <v>47.994164843180158</v>
-      </c>
-      <c r="M12">
-        <v>48.764534883720927</v>
+      <c r="K12" t="n">
+        <v>46.67630057803468</v>
+      </c>
+      <c r="L12" t="n">
+        <v>47.99416484318016</v>
+      </c>
+      <c r="M12" t="n">
+        <v>48.76453488372093</v>
       </c>
       <c r="N12" t="s">
         <v>144</v>
@@ -1558,7 +1218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1577,26 +1237,26 @@
       <c r="F13" t="s">
         <v>118</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>33.4</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>24.7</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>28.2</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>27.810650887573964</v>
       </c>
-      <c r="K13">
-        <v>30.922509225092249</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="n">
+        <v>30.92250922509225</v>
+      </c>
+      <c r="L13" t="n">
         <v>32.33438485804416</v>
       </c>
-      <c r="M13">
-        <v>34.308300395256921</v>
+      <c r="M13" t="n">
+        <v>34.30830039525692</v>
       </c>
       <c r="N13" t="s">
         <v>145</v>
@@ -1608,7 +1268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1627,25 +1287,25 @@
       <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>24.8</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>15.4</v>
       </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
+      <c r="I14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J14" t="n">
         <v>15.562565720294428</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>17.659352142110762</v>
       </c>
-      <c r="L14">
-        <v>20.358649789029538</v>
-      </c>
-      <c r="M14">
+      <c r="L14" t="n">
+        <v>20.35864978902954</v>
+      </c>
+      <c r="M14" t="n">
         <v>21.331945889698236</v>
       </c>
       <c r="N14" t="s">
@@ -1658,7 +1318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1677,25 +1337,25 @@
       <c r="F15" t="s">
         <v>120</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>20.3</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>14.2</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>13.4</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>14.901960784313724</v>
       </c>
-      <c r="K15">
-        <v>17.113665389527458</v>
-      </c>
-      <c r="L15">
+      <c r="K15" t="n">
+        <v>17.11366538952746</v>
+      </c>
+      <c r="L15" t="n">
         <v>19.51530612244898</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>19.627329192546583</v>
       </c>
       <c r="N15" t="s">
@@ -1708,7 +1368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1727,26 +1387,26 @@
       <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>29.9</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>21.1</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>20.3</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>22.502522704339047</v>
       </c>
-      <c r="K16">
-        <v>23.091976516634048</v>
-      </c>
-      <c r="L16">
-        <v>26.289682539682541</v>
-      </c>
-      <c r="M16">
-        <v>27.043390514631689</v>
+      <c r="K16" t="n">
+        <v>23.09197651663405</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.28968253968254</v>
+      </c>
+      <c r="M16" t="n">
+        <v>27.04339051463169</v>
       </c>
       <c r="N16" t="s">
         <v>148</v>
@@ -1758,7 +1418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1777,25 +1437,25 @@
       <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>30.4</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>22.3</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>22.7</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>20.519059205190597</v>
       </c>
-      <c r="K17">
-        <v>23.030821917808218</v>
-      </c>
-      <c r="L17">
-        <v>25.105663567202029</v>
-      </c>
-      <c r="M17">
+      <c r="K17" t="n">
+        <v>23.03082191780822</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25.10566356720203</v>
+      </c>
+      <c r="M17" t="n">
         <v>25.704526046114434</v>
       </c>
       <c r="N17" t="s">
@@ -1808,7 +1468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1827,13 +1487,13 @@
       <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>41.9</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>34.4</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>36.4</v>
       </c>
       <c r="J18" t="e">
@@ -1858,7 +1518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1877,25 +1537,25 @@
       <c r="F19" t="s">
         <v>120</v>
       </c>
-      <c r="G19">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H19">
+      <c r="G19" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.7</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>13.3</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>12.406015037593985</v>
       </c>
-      <c r="K19">
-        <v>15.525672371638141</v>
-      </c>
-      <c r="L19">
+      <c r="K19" t="n">
+        <v>15.52567237163814</v>
+      </c>
+      <c r="L19" t="n">
         <v>15.335868187579212</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>16.735822959889347</v>
       </c>
       <c r="N19" t="s">
@@ -1908,7 +1568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1927,26 +1587,26 @@
       <c r="F20" t="s">
         <v>123</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>40.4</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>34.1</v>
       </c>
-      <c r="I20">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="J20">
+      <c r="I20" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>32.962962962962955</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>35.9375</v>
       </c>
-      <c r="L20">
-        <v>37.202925045703843</v>
-      </c>
-      <c r="M20">
-        <v>35.071942446043167</v>
+      <c r="L20" t="n">
+        <v>37.20292504570384</v>
+      </c>
+      <c r="M20" t="n">
+        <v>35.07194244604317</v>
       </c>
       <c r="N20" t="s">
         <v>152</v>
@@ -1958,7 +1618,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1977,25 +1637,25 @@
       <c r="F21" t="s">
         <v>124</v>
       </c>
-      <c r="G21">
-        <v>31</v>
-      </c>
-      <c r="H21">
+      <c r="G21" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="H21" t="n">
         <v>23.1</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>22.5</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>24.509803921568626</v>
       </c>
-      <c r="K21">
-        <v>27.121951219512201</v>
-      </c>
-      <c r="L21">
-        <v>28.627838104639689</v>
-      </c>
-      <c r="M21">
+      <c r="K21" t="n">
+        <v>27.1219512195122</v>
+      </c>
+      <c r="L21" t="n">
+        <v>28.62783810463969</v>
+      </c>
+      <c r="M21" t="n">
         <v>27.906976744186046</v>
       </c>
       <c r="N21" t="s">
@@ -2008,7 +1668,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2027,26 +1687,26 @@
       <c r="F22" t="s">
         <v>125</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>24.3</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>18.7</v>
       </c>
-      <c r="I22">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J22" t="n">
         <v>18.402426693629927</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>22.35772357723577</v>
       </c>
-      <c r="L22">
-        <v>24.518743667679839</v>
-      </c>
-      <c r="M22">
-        <v>25.790010193679919</v>
+      <c r="L22" t="n">
+        <v>24.51874366767984</v>
+      </c>
+      <c r="M22" t="n">
+        <v>25.79001019367992</v>
       </c>
       <c r="N22" t="s">
         <v>154</v>
@@ -2058,7 +1718,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2077,25 +1737,25 @@
       <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>38.9</v>
       </c>
-      <c r="H23">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="I23">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J23">
+      <c r="H23" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J23" t="n">
         <v>35.475578406169674</v>
       </c>
-      <c r="K23">
-        <v>41.140881590319793</v>
-      </c>
-      <c r="L23">
+      <c r="K23" t="n">
+        <v>41.14088159031979</v>
+      </c>
+      <c r="L23" t="n">
         <v>43.261802575107296</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>44.955752212389385</v>
       </c>
       <c r="N23" t="s">
@@ -2108,7 +1768,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2127,26 +1787,26 @@
       <c r="F24" t="s">
         <v>127</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>40.9</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>30.4</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>31.3</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>30.518819938962356</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>36.410788381742734</v>
       </c>
-      <c r="L24">
-        <v>40.107526881720432</v>
-      </c>
-      <c r="M24">
-        <v>41.330425299890948</v>
+      <c r="L24" t="n">
+        <v>40.10752688172043</v>
+      </c>
+      <c r="M24" t="n">
+        <v>41.33042529989095</v>
       </c>
       <c r="N24" t="s">
         <v>156</v>
@@ -2158,7 +1818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2177,25 +1837,25 @@
       <c r="F25" t="s">
         <v>128</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>22.1</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>13.5</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>12.6</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>12.542759407069552</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>12.641083521444695</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>14.175824175824175</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>14.941302027748131</v>
       </c>
       <c r="N25" t="s">
@@ -2208,7 +1868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2227,26 +1887,26 @@
       <c r="F26" t="s">
         <v>129</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>43.6</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>35.9</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>37.4</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>36.164736164736176</v>
       </c>
-      <c r="K26">
-        <v>38.410596026490069</v>
-      </c>
-      <c r="L26">
+      <c r="K26" t="n">
+        <v>38.41059602649007</v>
+      </c>
+      <c r="L26" t="n">
         <v>41.889985895627646</v>
       </c>
-      <c r="M26">
-        <v>40.797546012269933</v>
+      <c r="M26" t="n">
+        <v>40.79754601226993</v>
       </c>
       <c r="N26" t="s">
         <v>158</v>
@@ -2258,7 +1918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2277,26 +1937,26 @@
       <c r="F27" t="s">
         <v>130</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>30.2</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>22.7</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>21.9</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>21.323529411764703</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>23.564954682779454</v>
       </c>
-      <c r="L27">
-        <v>24.450951683748169</v>
-      </c>
-      <c r="M27">
-        <v>24.961240310077521</v>
+      <c r="L27" t="n">
+        <v>24.45095168374817</v>
+      </c>
+      <c r="M27" t="n">
+        <v>24.96124031007752</v>
       </c>
       <c r="N27" t="s">
         <v>159</v>
@@ -2308,7 +1968,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2327,8 +1987,8 @@
       <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="G28">
-        <v>18.100000000000001</v>
+      <c r="G28" t="n">
+        <v>18.1</v>
       </c>
       <c r="H28" t="e">
         <v>#N/A</v>
@@ -2342,10 +2002,10 @@
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>13.344051446945338</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>14.471544715447154</v>
       </c>
       <c r="N28" t="s">
@@ -2358,7 +2018,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2377,25 +2037,25 @@
       <c r="F29" t="s">
         <v>132</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>32.9</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>25.3</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>26.4</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>27.294398092967818</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>26.380368098159508</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>28.640192539109503</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>28.5024154589372</v>
       </c>
       <c r="N29" t="s">
@@ -2408,7 +2068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2427,25 +2087,25 @@
       <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>19.3</v>
       </c>
-      <c r="H30">
-        <v>12</v>
-      </c>
-      <c r="I30">
+      <c r="H30" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I30" t="n">
         <v>12.7</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>10.062111801242237</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>10.666666666666668</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>12.025316455696204</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>12.439024390243905</v>
       </c>
       <c r="N30" t="s">
@@ -2459,6 +2119,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>